--- a/story/data/dictionary.xlsx
+++ b/story/data/dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/microcanvas/REACTOR/20221109-elex22maps/story/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6700C086-98DE-9A4C-993A-A1B013D6ABCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11E42E-CB0E-A84E-BEC6-16A8AF4E515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1640" windowWidth="28040" windowHeight="17440" xr2:uid="{D97DCAB7-86D2-0C4C-ADFB-432BE95E72F5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="326">
   <si>
     <t>office</t>
   </si>
@@ -1010,6 +1010,12 @@
   </si>
   <si>
     <t>counties.json</t>
+  </si>
+  <si>
+    <t>hca</t>
+  </si>
+  <si>
+    <t>hca-results-geo.json</t>
   </si>
 </sst>
 </file>
@@ -1373,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013429EE-F939-1446-99FD-047719CE88DC}">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" activeCellId="1" sqref="G3:G5 J8"/>
+      <selection activeCell="R229" sqref="R229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6306,6 +6312,29 @@
       </c>
       <c r="G214" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>324</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>46.607469000000002</v>
+      </c>
+      <c r="E215">
+        <v>-94.351646000000002</v>
+      </c>
+      <c r="F215" t="s">
+        <v>325</v>
+      </c>
+      <c r="G215" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/story/data/dictionary.xlsx
+++ b/story/data/dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/microcanvas/REACTOR/20221109-elex22maps/story/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11E42E-CB0E-A84E-BEC6-16A8AF4E515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22109990-FF7A-CA4D-95F8-386320FFA599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1640" windowWidth="28040" windowHeight="17440" xr2:uid="{D97DCAB7-86D2-0C4C-ADFB-432BE95E72F5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="328">
   <si>
     <t>office</t>
   </si>
@@ -1016,6 +1016,12 @@
   </si>
   <si>
     <t>hca-results-geo.json</t>
+  </si>
+  <si>
+    <t>hcs</t>
+  </si>
+  <si>
+    <t>hcs-results-geo.json</t>
   </si>
 </sst>
 </file>
@@ -1379,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013429EE-F939-1446-99FD-047719CE88DC}">
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R229" sqref="R229"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6334,6 +6340,29 @@
         <v>325</v>
       </c>
       <c r="G215" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>326</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>46.607469000000002</v>
+      </c>
+      <c r="E216">
+        <v>-94.351646000000002</v>
+      </c>
+      <c r="F216" t="s">
+        <v>327</v>
+      </c>
+      <c r="G216" t="s">
         <v>323</v>
       </c>
     </row>
